--- a/Nachi/Autitos de Nachi.xlsx
+++ b/Nachi/Autitos de Nachi.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="Autitos de Nachi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Autitos de Nachi'!$C$4:$G$4</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -109,14 +112,14 @@
     <t>Mercedes Benz CLK</t>
   </si>
   <si>
-    <t>NS/NC</t>
+    <t>Dodge Challenger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +255,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,8 +442,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -549,6 +564,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -594,9 +624,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -935,254 +967,263 @@
   <dimension ref="C4:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
-      <c r="C6" t="s">
+    <row r="11" spans="3:7">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
-      <c r="C7" t="s">
+    <row r="12" spans="3:7">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
-      <c r="C8" t="s">
+    <row r="14" spans="3:7">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="17" spans="3:7">
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="C4:G4"/>
+  <sortState ref="C5:G17">
+    <sortCondition ref="C5:C17"/>
+    <sortCondition ref="D5:D17"/>
+    <sortCondition ref="E5:E17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Nachi/Autitos de Nachi.xlsx
+++ b/Nachi/Autitos de Nachi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Modelo</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Verde</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>Ford Mustang GT 2000</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Dodge Challenger</t>
+  </si>
+  <si>
+    <t>Hummer</t>
   </si>
 </sst>
 </file>
@@ -964,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:G17"/>
+  <dimension ref="C4:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -1001,13 +1001,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
@@ -1018,10 +1018,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1035,16 +1035,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="3:7">
@@ -1052,10 +1052,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -1069,13 +1069,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
@@ -1086,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -1120,16 +1120,16 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="3:7">
@@ -1137,13 +1137,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>7</v>
@@ -1154,10 +1154,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1171,13 +1171,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>7</v>
@@ -1185,16 +1185,16 @@
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>7</v>
@@ -1202,18 +1202,35 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Nachi/Autitos de Nachi.xlsx
+++ b/Nachi/Autitos de Nachi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>Modelo</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Hummer</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -624,11 +627,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -967,7 +971,7 @@
   <dimension ref="C4:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1122,14 +1126,14 @@
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="3:7">
@@ -1156,14 +1160,14 @@
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -1173,14 +1177,14 @@
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="3:7">

--- a/Nachi/Autitos de Nachi.xlsx
+++ b/Nachi/Autitos de Nachi.xlsx
@@ -971,7 +971,7 @@
   <dimension ref="C4:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1167,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -1184,7 +1184,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="3:7">

--- a/Nachi/Autitos de Nachi.xlsx
+++ b/Nachi/Autitos de Nachi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>Modelo</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Mercedes Benz CLK320</t>
+  </si>
+  <si>
+    <t>Mitsubishi Lancer Evolution VII</t>
   </si>
 </sst>
 </file>
@@ -627,12 +633,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -678,7 +683,113 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -968,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:G18"/>
+  <dimension ref="C4:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C5" sqref="C5:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -981,6 +1092,7 @@
     <col min="5" max="5" width="38.140625" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
@@ -1041,7 +1153,7 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1082,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="3:7">
@@ -1099,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -1110,10 +1222,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7</v>
@@ -1126,14 +1238,14 @@
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="3:7">
@@ -1141,16 +1253,16 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="3:7">
@@ -1158,13 +1270,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>7</v>
@@ -1177,14 +1289,14 @@
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="3:7">
@@ -1195,10 +1307,10 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>7</v>
@@ -1206,16 +1318,16 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>7</v>
@@ -1229,12 +1341,46 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1245,6 +1391,16 @@
     <sortCondition ref="D5:D17"/>
     <sortCondition ref="E5:E17"/>
   </sortState>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>IF(G9="SI",'TRUE','FALSE')</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G20">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Nachi/Autitos de Nachi.xlsx
+++ b/Nachi/Autitos de Nachi.xlsx
@@ -13,11 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Autitos de Nachi'!$C$4:$G$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>Modelo</t>
   </si>
@@ -118,10 +119,22 @@
     <t>SI</t>
   </si>
   <si>
-    <t>Mercedes Benz CLK320</t>
-  </si>
-  <si>
     <t>Mitsubishi Lancer Evolution VII</t>
+  </si>
+  <si>
+    <t>Mercedes Benz SLK320</t>
+  </si>
+  <si>
+    <t>Chrysler 1956 300B</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>2002 Eco-Spider</t>
+  </si>
+  <si>
+    <t>Dodge Charger R/T</t>
   </si>
 </sst>
 </file>
@@ -683,113 +696,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1079,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:G20"/>
+  <dimension ref="C4:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1120,10 +1027,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
@@ -1137,10 +1044,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>7</v>
@@ -1154,10 +1061,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -1171,10 +1078,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
@@ -1188,13 +1095,13 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:7">
@@ -1205,13 +1112,13 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -1222,10 +1129,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7</v>
@@ -1239,10 +1146,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>7</v>
@@ -1256,13 +1163,13 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="3:7">
@@ -1270,13 +1177,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>7</v>
@@ -1287,16 +1194,16 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="3:7">
@@ -1304,16 +1211,16 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -1321,13 +1228,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>7</v>
@@ -1335,33 +1242,33 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>7</v>
@@ -1369,18 +1276,69 @@
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1391,16 +1349,6 @@
     <sortCondition ref="D5:D17"/>
     <sortCondition ref="E5:E17"/>
   </sortState>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>IF(G9="SI",'TRUE','FALSE')</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"SI"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Nachi/Autitos de Nachi.xlsx
+++ b/Nachi/Autitos de Nachi.xlsx
@@ -13,12 +13,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Autitos de Nachi'!$C$4:$G$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>Modelo</t>
   </si>
@@ -135,6 +134,18 @@
   </si>
   <si>
     <t>Dodge Charger R/T</t>
+  </si>
+  <si>
+    <t>Mitsubishi Lancer Evolution X</t>
+  </si>
+  <si>
+    <t>McQueen - Cars</t>
+  </si>
+  <si>
+    <t>Ford Mustang '67 Shelby GT 500</t>
+  </si>
+  <si>
+    <t>Ferrari F430 Challenge</t>
   </si>
 </sst>
 </file>
@@ -986,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:G23"/>
+  <dimension ref="C4:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1131,7 +1142,7 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1146,7 +1157,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1163,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>7</v>
@@ -1180,7 +1191,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1197,10 +1208,10 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>7</v>
@@ -1214,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -1228,13 +1239,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>7</v>
@@ -1245,16 +1256,16 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -1262,13 +1273,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>7</v>
@@ -1279,27 +1290,27 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
@@ -1310,35 +1321,103 @@
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Nachi/Autitos de Nachi.xlsx
+++ b/Nachi/Autitos de Nachi.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Autitos de Nachi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Autitos de Nachi'!$C$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Autitos de Nachi'!$C$4:$G$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t>Modelo</t>
   </si>
@@ -139,13 +139,31 @@
     <t>Mitsubishi Lancer Evolution X</t>
   </si>
   <si>
-    <t>McQueen - Cars</t>
-  </si>
-  <si>
     <t>Ford Mustang '67 Shelby GT 500</t>
   </si>
   <si>
     <t>Ferrari F430 Challenge</t>
+  </si>
+  <si>
+    <t>McQueen - Cars - Dinoco</t>
+  </si>
+  <si>
+    <t>McQueen - Cars - Carrera final</t>
+  </si>
+  <si>
+    <t>McQueen - Cars - Radiators Spring</t>
+  </si>
+  <si>
+    <t>Celeste</t>
+  </si>
+  <si>
+    <t>BMW X6</t>
+  </si>
+  <si>
+    <t>Gris plata</t>
+  </si>
+  <si>
+    <t>Sclrocco GT 24</t>
   </si>
 </sst>
 </file>
@@ -997,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:G27"/>
+  <dimension ref="C4:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1157,7 +1175,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1174,7 +1192,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1225,10 +1243,10 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>7</v>
@@ -1242,7 +1260,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1259,10 +1277,10 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>7</v>
@@ -1276,10 +1294,10 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>7</v>
@@ -1293,13 +1311,13 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -1307,13 +1325,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>7</v>
@@ -1324,16 +1342,16 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="3:7">
@@ -1341,16 +1359,16 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="3:7">
@@ -1358,13 +1376,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>7</v>
@@ -1372,33 +1390,33 @@
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>7</v>
@@ -1406,23 +1424,91 @@
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C4:G4"/>
+  <autoFilter ref="C4:G31"/>
   <sortState ref="C5:G17">
     <sortCondition ref="C5:C17"/>
     <sortCondition ref="D5:D17"/>

--- a/Nachi/Autitos de Nachi.xlsx
+++ b/Nachi/Autitos de Nachi.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Autitos de Nachi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Autitos de Nachi'!$C$4:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Autitos de Nachi'!$C$4:$G$34</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="51">
   <si>
     <t>Modelo</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Sclrocco GT 24</t>
+  </si>
+  <si>
+    <t>Cadillac CTS-V '09</t>
+  </si>
+  <si>
+    <t>Nissan Skyline GT-R</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:G31"/>
+  <dimension ref="C4:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1107,7 +1113,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>36</v>
@@ -1124,10 +1130,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
@@ -1141,10 +1147,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>7</v>
@@ -1158,10 +1164,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7</v>
@@ -1175,10 +1181,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>7</v>
@@ -1192,10 +1198,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>7</v>
@@ -1209,10 +1215,10 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>7</v>
@@ -1226,10 +1232,10 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>7</v>
@@ -1243,10 +1249,10 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>7</v>
@@ -1260,10 +1266,10 @@
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>7</v>
@@ -1277,7 +1283,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1294,7 +1300,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1311,10 +1317,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>7</v>
@@ -1328,10 +1334,10 @@
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>7</v>
@@ -1345,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
@@ -1362,13 +1368,13 @@
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="3:7">
@@ -1376,13 +1382,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>7</v>
@@ -1393,16 +1399,16 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="3:7">
@@ -1410,13 +1416,13 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>7</v>
@@ -1427,13 +1433,13 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>7</v>
@@ -1447,27 +1453,27 @@
         <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>7</v>
@@ -1475,16 +1481,16 @@
     </row>
     <row r="30" spans="3:7">
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>7</v>
@@ -1492,23 +1498,76 @@
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C4:G31"/>
+  <autoFilter ref="C4:G34">
+    <filterColumn colId="4"/>
+  </autoFilter>
   <sortState ref="C5:G17">
     <sortCondition ref="C5:C17"/>
     <sortCondition ref="D5:D17"/>
